--- a/CRIME.xlsx
+++ b/CRIME.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f59ac0286a75ad5/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="888" documentId="8_{FA68B849-769F-4954-B1EC-389EEB40AF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6EAA589-A83E-48A3-84B1-7C3A5B3D4C41}"/>
+  <xr:revisionPtr revIDLastSave="902" documentId="8_{FA68B849-769F-4954-B1EC-389EEB40AF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FBCED08-4FA3-44FF-9C73-3D69908DF920}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="9" xr2:uid="{645EBE78-224C-447C-AC13-BC538B30651F}"/>
   </bookViews>
@@ -26,10 +26,10 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="38" r:id="rId11"/>
-    <pivotCache cacheId="13" r:id="rId12"/>
-    <pivotCache cacheId="22" r:id="rId13"/>
-    <pivotCache cacheId="36" r:id="rId14"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
+    <pivotCache cacheId="2" r:id="rId13"/>
+    <pivotCache cacheId="3" r:id="rId14"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1082,11 +1082,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1835,20 +1834,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3014,8 +3000,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3106,21 +3091,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -3147,21 +3132,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -3188,21 +3173,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -3229,21 +3214,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -5676,6 +5661,76 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -5709,6 +5764,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A90F-4A8C-9B70-FF008AEDC1EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5724,6 +5784,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A90F-4A8C-9B70-FF008AEDC1EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -5739,6 +5804,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A90F-4A8C-9B70-FF008AEDC1EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -5754,6 +5824,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A90F-4A8C-9B70-FF008AEDC1EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -5769,6 +5844,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A90F-4A8C-9B70-FF008AEDC1EE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -6110,8 +6190,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -6143,7 +6222,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -6154,6 +6232,211 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -6219,6 +6502,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9400-4505-BAE7-77F01552FF8B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6262,6 +6550,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9400-4505-BAE7-77F01552FF8B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -6305,6 +6598,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9400-4505-BAE7-77F01552FF8B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -6351,6 +6649,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9400-4505-BAE7-77F01552FF8B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -6397,6 +6700,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9400-4505-BAE7-77F01552FF8B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -6452,7 +6760,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -6936,49 +7243,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -15237,13 +15502,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>593651</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>175261</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>159487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15327,14 +15592,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>168349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>567069</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>120502</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15371,8 +15636,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>425303</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>159489</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168348</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15403,14 +15668,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>575930</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>159489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>434162</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>129361</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>120502</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15440,15 +15705,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>451883</xdr:colOff>
+      <xdr:colOff>434163</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>8859</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>132908</xdr:rowOff>
+      <xdr:colOff>8860</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>141766</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15478,15 +15743,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>460743</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>141768</xdr:rowOff>
+      <xdr:colOff>443022</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>141767</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>17720</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>93921</xdr:rowOff>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>155945</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15514,6 +15779,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26339,7 +26608,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A5C2CD3-6A36-446C-81F7-A3CF32286D0F}" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A5C2CD3-6A36-446C-81F7-A3CF32286D0F}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
@@ -26608,7 +26877,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E7DC30C-F881-43D0-A115-998FFC82BC6C}" name="PivotTable5" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E7DC30C-F881-43D0-A115-998FFC82BC6C}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
@@ -26899,7 +27168,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{059A754B-6733-40DD-9F77-B13771157D37}" name="PivotTable2" cacheId="38" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{059A754B-6733-40DD-9F77-B13771157D37}" name="PivotTable2" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
   <location ref="G9:H16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0">
@@ -27277,7 +27546,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD9525BE-0A8C-46B4-8550-CC8851DFEA66}" name="PivotTable1" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD9525BE-0A8C-46B4-8550-CC8851DFEA66}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
@@ -27485,7 +27754,7 @@
   <dataFields count="1">
     <dataField name="Sum of Total Crime" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="9">
     <chartFormat chart="5" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -27522,6 +27791,66 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="5" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="98"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="113"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="142"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="148"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
@@ -27545,7 +27874,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78EA9C09-4F1F-4B63-92C4-4EF8A0547A43}" name="PivotTable7" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78EA9C09-4F1F-4B63-92C4-4EF8A0547A43}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D161" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -28245,7 +28574,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1466ED05-0AD8-4DCC-A1BB-141C6E6E6093}" name="PivotTable8" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1466ED05-0AD8-4DCC-A1BB-141C6E6E6093}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A4:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
@@ -28844,7 +29173,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{08BE464F-E842-4CA9-AD45-30B2F2AF45D4}" name="PivotTable12" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{08BE464F-E842-4CA9-AD45-30B2F2AF45D4}" name="PivotTable12" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
@@ -29104,7 +29433,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24CC94FB-0315-4C06-B08E-5508E3929609}" name="PivotTable13" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24CC94FB-0315-4C06-B08E-5508E3929609}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
@@ -29354,7 +29683,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8BE4F163-6027-4A9A-87E7-ECAAF849DF36}" name="PivotTable14" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8BE4F163-6027-4A9A-87E7-ECAAF849DF36}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
@@ -29562,7 +29891,7 @@
   <dataFields count="1">
     <dataField name="Sum of Murder" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="19">
+  <chartFormats count="24">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -29768,6 +30097,66 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="139"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="121"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="138"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -30113,7 +30502,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B3" t="s">
@@ -30121,50 +30510,50 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>539</v>
       </c>
     </row>
@@ -30184,7 +30573,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -30215,7 +30604,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B3" t="s">
@@ -30238,140 +30627,140 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>895</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>54</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>945</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>34</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>126</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>18</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>1251</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>19</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>64</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>24</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>1273</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>82</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>27</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>1042</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>21</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>81</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>10</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>5406</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>88</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>407</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>83</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>178</v>
       </c>
     </row>
@@ -30400,7 +30789,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B3" t="s">
@@ -30408,109 +30797,109 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>1011</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>1179</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>1421</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>1433</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>1180</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>6224</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
         <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11">
         <v>1498</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12">
         <v>3004</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13">
         <v>5306</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14">
         <v>1863</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15">
         <v>63346</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16">
         <v>148</v>
       </c>
     </row>
@@ -30541,7 +30930,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B3" t="s">
@@ -30555,2214 +30944,2214 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>77.175319999999999</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>1646190.527</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>77.139129999999994</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>51545474.920000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>77.060810000000004</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>3296887.9339999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>77.240930000000006</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>1505936.692</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>77.173760000000001</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>1948430.2860000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>77.293729999999996</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>4558969.6919999998</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>77.174319999999994</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>3536288.0389999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>76.966809999999995</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>28982133.579999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>77.303569999999993</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>2116989.6970000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>77.208460000000002</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>1749323.8810000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>77.224980000000002</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>3748441.9989999998</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>77.042540000000002</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>40327922.920000002</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>77.051789999999997</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>35490190.899999999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>77.264399999999995</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>10157991.640000001</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>77.16574</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>4498522.05</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>77.178510000000003</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>1939521.818</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>77.066180000000003</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>2568079.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>77.19735</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>11333876.300000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>77.196060000000003</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>10993452.52</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>77.236080000000001</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>5570696.1320000002</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>76.994659999999996</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>26309445.59</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>77.249200000000002</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>2659329.537</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>77.221500000000006</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>4215542.88</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>77.214320000000001</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>5266891.9960000003</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>77.193259999999995</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>1643641.889</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>77.085999999999999</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>3401013.4279999998</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>77.240620000000007</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>5570696.1320000002</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>77.233369999999994</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>2480276.534</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>77.124369999999999</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>42836353.409999996</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>77.015640000000005</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>30068547.98</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>77.058490000000006</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>30068547.98</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <v>77.066659999999999</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35">
         <v>30068547.98</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>77.292240000000007</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>1721757.7439999999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <v>77.151139999999998</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37">
         <v>35895594.950000003</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38">
         <v>77.316000000000003</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38">
         <v>2874304.3739999998</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <v>77.267330000000001</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39">
         <v>1205110.7760000001</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>77.276420000000002</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40">
         <v>1021961.219</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41">
         <v>77.332669999999993</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41">
         <v>2886810.13</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>77.280850000000001</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>1566343.791</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <v>77.265320000000003</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43">
         <v>8992712.0600000005</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <v>77.232780000000005</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44">
         <v>3793564.8429999999</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45">
         <v>77.192620000000005</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45">
         <v>2218660.1779999998</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46">
         <v>77.244169999999997</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46">
         <v>10316304.039999999</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47">
         <v>77.099459999999993</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47">
         <v>2386161.4789999998</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48">
         <v>77.318489999999997</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48">
         <v>2572204.895</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49">
         <v>77.208470000000005</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49">
         <v>2436526.4580000001</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50">
         <v>77.225480000000005</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50">
         <v>3095888.3229999999</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51">
         <v>77.247219999999999</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51">
         <v>9253420.8650000002</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52">
         <v>77.145009999999999</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52">
         <v>1255396.2990000001</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53">
         <v>76.915549999999996</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53">
         <v>70469487.219999999</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54">
         <v>77.283900000000003</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54">
         <v>1021961.219</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55">
         <v>1</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55">
         <v>77.174869999999999</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55">
         <v>2463668.0460000001</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>1</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56">
         <v>77.233620000000002</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56">
         <v>3817050.2239999999</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57">
         <v>77.292349999999999</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57">
         <v>7880690.9809999997</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58">
         <v>77.081879999999998</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58">
         <v>2051115.2339999999</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59">
         <v>77.291700000000006</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59">
         <v>1275858.5279999999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60">
         <v>77.257429999999999</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60">
         <v>2659329.537</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61">
         <v>1</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61">
         <v>77.317080000000004</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61">
         <v>878452.77890000003</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62">
         <v>77.226209999999995</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62">
         <v>3095888.3229999999</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63">
         <v>77.003609999999995</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63">
         <v>35490190.899999999</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64">
         <v>77.087199999999996</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64">
         <v>21500572.789999999</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65">
         <v>77.274500000000003</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65">
         <v>2937546.5780000002</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66">
         <v>1</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66">
         <v>77.193200000000004</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66">
         <v>1643641.889</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67">
         <v>77.226179999999999</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67">
         <v>1627909.9739999999</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68">
         <v>77.159769999999995</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68">
         <v>1352844.6850000001</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69">
         <v>1</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69">
         <v>77.256100000000004</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69">
         <v>4453887.398</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70">
         <v>1</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70">
         <v>77.113320000000002</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70">
         <v>2093069.9140000001</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71">
         <v>1</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71">
         <v>77.135090000000005</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71">
         <v>1511976.155</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72">
         <v>1</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72">
         <v>77.120999999999995</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72">
         <v>8251478.9330000002</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73">
         <v>1</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73">
         <v>77.225139999999996</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73">
         <v>1628367.1640000001</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74">
         <v>1</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74">
         <v>77.280720000000002</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74">
         <v>1904048.824</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75">
         <v>1</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75">
         <v>77.218850000000003</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75">
         <v>2975208.719</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76">
         <v>1</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76">
         <v>77.240520000000004</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76">
         <v>1505936.692</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77">
         <v>1</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77">
         <v>77.240470000000002</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77">
         <v>2116960.63</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78">
         <v>1</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78">
         <v>77.306120000000007</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78">
         <v>4995712.6220000004</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79">
         <v>1</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79">
         <v>77.164180000000002</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79">
         <v>2463668.0460000001</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80">
         <v>77.204179999999994</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80">
         <v>1379853.5719999999</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81">
         <v>77.306120000000007</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81">
         <v>4995712.6220000004</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82">
         <v>1</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82">
         <v>77.203249999999997</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82">
         <v>9889059.6309999991</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83">
         <v>1</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83">
         <v>77.091629999999995</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83">
         <v>2980192.3220000002</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84">
         <v>1</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84">
         <v>77.298559999999995</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84">
         <v>2231365.6189999999</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85">
         <v>77.206519999999998</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85">
         <v>6149745.1040000003</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86">
         <v>1</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86">
         <v>77.146050000000002</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86">
         <v>5879256.0029999996</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87">
         <v>1</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87">
         <v>77.120840000000001</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87">
         <v>2553754.8160000001</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88">
         <v>1</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88">
         <v>77.303669999999997</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88">
         <v>2111658.8280000002</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89">
         <v>77.180189999999996</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89">
         <v>38911866.780000001</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90">
         <v>1</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90">
         <v>77.088790000000003</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90">
         <v>1729847.8529999999</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91">
         <v>1</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91">
         <v>77.193690000000004</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91">
         <v>2689157.085</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92">
         <v>1</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92">
         <v>77.146590000000003</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92">
         <v>3148605.142</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93">
         <v>1</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93">
         <v>77.208560000000006</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93">
         <v>6149745.1040000003</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94">
         <v>1</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94">
         <v>76.960849999999994</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94">
         <v>48582358.640000001</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95">
         <v>77.21754</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95">
         <v>1799866.446</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96">
         <v>1</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96">
         <v>76.982690000000005</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96">
         <v>8461597.1239999998</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97">
         <v>77.308170000000004</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97">
         <v>2028156.97</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98">
         <v>1</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98">
         <v>77.066980000000001</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98">
         <v>2253261.514</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99">
         <v>1</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99">
         <v>77.137770000000003</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99">
         <v>14937293.49</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100">
         <v>1</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100">
         <v>77.088489999999993</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100">
         <v>20333276.969999999</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101">
         <v>77.214280000000002</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101">
         <v>8344724.0190000003</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102">
         <v>77.311779999999999</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102">
         <v>3300804.9369999999</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103">
         <v>1</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103">
         <v>77.267600000000002</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103">
         <v>4045386.71</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104">
         <v>1</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104">
         <v>77.262069999999994</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104">
         <v>3093393.3870000001</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105">
         <v>77.071700000000007</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105">
         <v>3660010.6189999999</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106">
         <v>1</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106">
         <v>77.274619999999999</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106">
         <v>1716036.19</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107">
         <v>1</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107">
         <v>77.209310000000002</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107">
         <v>1728182.3459999999</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108">
         <v>77.082930000000005</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108">
         <v>1326803.6240000001</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109">
         <v>1</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109">
         <v>77.30265</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109">
         <v>1470612.9779999999</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110">
         <v>1</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110">
         <v>77.213660000000004</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110">
         <v>5266891.9960000003</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111">
         <v>1</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111">
         <v>77.180530000000005</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111">
         <v>4104570.1660000002</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112">
         <v>1</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112">
         <v>77.101150000000004</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112">
         <v>3794663.7969999998</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113">
         <v>1</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113">
         <v>77.15822</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113">
         <v>4104570.1660000002</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114">
         <v>1</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114">
         <v>77.127570000000006</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114">
         <v>2076678.9269999999</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115">
         <v>1</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115">
         <v>77.295259999999999</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115">
         <v>2272578.6979999999</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116">
         <v>1</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116">
         <v>77.290989999999994</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116">
         <v>3852127.696</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117">
         <v>1</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117">
         <v>77.132760000000005</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117">
         <v>2577310.64</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118">
         <v>1</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118">
         <v>77.182850000000002</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118">
         <v>3013302.5279999999</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119">
         <v>1</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119">
         <v>77.119919999999993</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119">
         <v>1731624.057</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120">
         <v>1</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120">
         <v>77.035989999999998</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120">
         <v>11283823.51</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121">
         <v>1</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121">
         <v>77.119330000000005</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121">
         <v>2974723.8879999998</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122">
         <v>1</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122">
         <v>77.158680000000004</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122">
         <v>2003783.7620000001</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123">
         <v>1</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123">
         <v>77.11815</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123">
         <v>2076678.9269999999</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124">
         <v>1</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124">
         <v>77.115899999999996</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124">
         <v>2649542.395</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125">
         <v>1</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125">
         <v>77.202650000000006</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125">
         <v>1076492.6340000001</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126">
         <v>1</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126">
         <v>77.211150000000004</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126">
         <v>2975208.719</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127">
         <v>1</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127">
         <v>77.204890000000006</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127">
         <v>2366255.9419999998</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128">
         <v>1</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128">
         <v>77.086439999999996</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128">
         <v>1283551.172</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129">
         <v>1</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129">
         <v>77.227149999999995</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129">
         <v>2732945.7179999999</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130">
         <v>1</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130">
         <v>77.142189999999999</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130">
         <v>3249865.0129999998</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131">
         <v>1</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131">
         <v>77.242990000000006</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131">
         <v>3105723.33</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132">
         <v>1</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132">
         <v>77.183679999999995</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132">
         <v>1948430.2860000001</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133">
         <v>1</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133">
         <v>77.306169999999995</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133">
         <v>7942774.0250000004</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134">
         <v>1</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134">
         <v>77.199129999999997</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134">
         <v>1891342.6340000001</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135">
         <v>1</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135">
         <v>77.268550000000005</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135">
         <v>1576237.38</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136">
         <v>1</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136">
         <v>77.31653</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136">
         <v>4731868.9970000004</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137">
         <v>1</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137">
         <v>77.078940000000003</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137">
         <v>49822649.530000001</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138">
         <v>1</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138">
         <v>77.285179999999997</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138">
         <v>2231365.6189999999</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139">
         <v>1</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139">
         <v>77.270300000000006</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139">
         <v>3019451.7659999998</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140">
         <v>1</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140">
         <v>77.157120000000006</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140">
         <v>1281611.56</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141">
         <v>1</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141">
         <v>77.256110000000007</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141">
         <v>4453887.398</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142">
         <v>1</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142">
         <v>77.179000000000002</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142">
         <v>4518856.0980000002</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143">
         <v>1</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143">
         <v>77.144120000000001</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143">
         <v>885072.49800000002</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144">
         <v>1</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144">
         <v>77.207740000000001</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144">
         <v>2975208.719</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145">
         <v>1</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145">
         <v>77.078559999999996</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145">
         <v>1975070.3729999999</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146">
         <v>1</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146">
         <v>77.260180000000005</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146">
         <v>2112193.7740000002</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147">
         <v>1</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147">
         <v>77.156199999999998</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147">
         <v>12088114.57</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148">
         <v>1</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148">
         <v>77.235370000000003</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148">
         <v>3748441.9989999998</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149">
         <v>1</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149">
         <v>77.101429999999993</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149">
         <v>1622207.446</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150">
         <v>1</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150">
         <v>77.224199999999996</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150">
         <v>6149745.1040000003</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151">
         <v>1</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151">
         <v>77.211169999999996</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151">
         <v>6857849.2929999996</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152">
         <v>1</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152">
         <v>77.064880000000002</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152">
         <v>2747375.4789999998</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153">
         <v>1</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153">
         <v>77.152320000000003</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153">
         <v>14105371.6</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154">
         <v>1</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154">
         <v>77.152360000000002</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154">
         <v>14105371.6</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155">
         <v>1</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155">
         <v>77.169330000000002</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155">
         <v>14105371.6</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156">
         <v>1</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156">
         <v>77.101860000000002</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156">
         <v>2649542.395</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157">
         <v>1</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157">
         <v>77.068340000000006</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157">
         <v>1247661.8740000001</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158">
         <v>1</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158">
         <v>77.306619999999995</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158">
         <v>4731868.9970000004</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159">
         <v>1</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159">
         <v>77.274789999999996</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D159">
         <v>1805524.4069999999</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160">
         <v>1</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160">
         <v>77.272970000000001</v>
       </c>
-      <c r="D160" s="3">
+      <c r="D160">
         <v>1576237.38</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161">
         <v>157</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161">
         <v>12118.28443</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D161">
         <v>1167024607.3178999</v>
       </c>
     </row>
@@ -32981,7 +33370,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B4" t="s">
@@ -32992,68 +33381,68 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>60</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>378.86933199999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>63</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>606.58610220000003</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>68</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>99.402778089999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>52</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>357.18560239999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>54</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>551.34991400000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>297</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>1993.39372869</v>
       </c>
     </row>
@@ -33078,7 +33467,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B3" t="s">
@@ -33086,50 +33475,50 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>162</v>
       </c>
     </row>
@@ -33154,7 +33543,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B3" t="s">
@@ -33162,50 +33551,50 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>175</v>
       </c>
     </row>
@@ -33230,7 +33619,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B3" t="s">
@@ -33238,50 +33627,50 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>50</v>
       </c>
     </row>
